--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOpsProjects\OE3i_Documentation\MentorPlanner\Projects\2024 SDU student projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B7BBBA-9ADE-4D5D-8307-25ECAFF09806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9804BE-F5DA-4320-BCE3-2626B07BDB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="780" windowWidth="38310" windowHeight="19695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="2700" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Winter period</t>
   </si>
@@ -64,12 +64,66 @@
   <si>
     <t>DKK / Mwh(el)</t>
   </si>
+  <si>
+    <t>Suport Quotes for main Page</t>
+  </si>
+  <si>
+    <t>Quote owner</t>
+  </si>
+  <si>
+    <t>Your work is the silent guardian of comfort, transforming cold spaces into warm havens.</t>
+  </si>
+  <si>
+    <t>Together, we weave a tapestry of warmth, each thread vital to the comfort of homes around the world.</t>
+  </si>
+  <si>
+    <t>Innovation is our fuel, warmth is our gift. Together, we redefine comfort in every home.</t>
+  </si>
+  <si>
+    <t>The warmth you distribute is more than just heat; it's the promise of a better, cozier tomorrow.</t>
+  </si>
+  <si>
+    <t>Every effort you make turns the gears of progress, bringing sustainable warmth to the heart of every home.</t>
+  </si>
+  <si>
+    <t>Your dedication ignites the flame of change, warming the world one home at a time.</t>
+  </si>
+  <si>
+    <t>You are the unseen heroes, ensuring the warmth that families gather around, sharing moments that become memories.</t>
+  </si>
+  <si>
+    <t>Let's light up the world with warmth, one innovative solution at a time, making every home a sanctuary.</t>
+  </si>
+  <si>
+    <t>Your work in spreading warmth is a testament to our collective resolve to make the world a more comfortable place.</t>
+  </si>
+  <si>
+    <t>Together, we are not just distributing heat; we are spreading the warmth of hope and the comfort of sustainability.</t>
+  </si>
+  <si>
+    <t>The warmth you provide reaches far beyond the thermostat, it touches lives, kindling the warmth of human connection.</t>
+  </si>
+  <si>
+    <t>In the heart of every warm home is the silent echo of your dedication and hard work.</t>
+  </si>
+  <si>
+    <t>Your commitment to delivering warmth is the cornerstone of our mission to energize lives with comfort and efficiency.</t>
+  </si>
+  <si>
+    <t>Let the warmth you distribute be a beacon of innovation, sustainability, and comfort, illuminating the path to a better future for all.</t>
+  </si>
+  <si>
+    <t>© - ChatGPT to Danfoss Employee</t>
+  </si>
+  <si>
+    <t>In every drop of warmth you deliver, you bring the glow of comfort to countless homes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +152,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -140,6 +199,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,7 +294,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2431,7 +2492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658203504"/>
@@ -2490,7 +2551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658202064"/>
@@ -2532,7 +2593,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="948367536"/>
@@ -2601,7 +2662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2638,7 +2699,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2722,7 +2783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4920,7 +4981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658203504"/>
@@ -4979,7 +5040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658202064"/>
@@ -5021,7 +5082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="948367536"/>
@@ -5090,7 +5151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5127,7 +5188,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6254,14 +6315,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6292,16 +6353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6594,13 +6655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J171"/>
+  <dimension ref="B1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
@@ -6609,23 +6670,31 @@
     <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="120.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="2:10">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="M1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6651,7 +6720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6677,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>44965</v>
       </c>
@@ -6704,8 +6773,14 @@
       <c r="J4" s="3">
         <v>752.03</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="M4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44965.041666666664</v>
       </c>
@@ -6732,8 +6807,14 @@
       <c r="J5" s="3">
         <v>691.05</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44965.083333333336</v>
       </c>
@@ -6760,8 +6841,14 @@
       <c r="J6" s="3">
         <v>674.78</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44965.125</v>
       </c>
@@ -6788,8 +6875,14 @@
       <c r="J7" s="3">
         <v>652.95000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965.166666666664</v>
       </c>
@@ -6816,8 +6909,14 @@
       <c r="J8" s="3">
         <v>666.3</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965.208333333336</v>
       </c>
@@ -6844,8 +6943,14 @@
       <c r="J9" s="3">
         <v>654.6</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44965.25</v>
       </c>
@@ -6872,8 +6977,14 @@
       <c r="J10" s="3">
         <v>637.04999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44965.291666666664</v>
       </c>
@@ -6900,8 +7011,14 @@
       <c r="J11" s="3">
         <v>639.45000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44965.333333333336</v>
       </c>
@@ -6928,8 +7045,14 @@
       <c r="J12" s="3">
         <v>628.28</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44965.375</v>
       </c>
@@ -6956,8 +7079,14 @@
       <c r="J13" s="3">
         <v>570.29999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44965.416666666664</v>
       </c>
@@ -6984,8 +7113,14 @@
       <c r="J14" s="3">
         <v>456.75</v>
       </c>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44965.458333333336</v>
       </c>
@@ -7012,8 +7147,14 @@
       <c r="J15" s="3">
         <v>347.4</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44965.5</v>
       </c>
@@ -7040,8 +7181,14 @@
       <c r="J16" s="3">
         <v>264.14999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44965.541666666664</v>
       </c>
@@ -7068,8 +7215,14 @@
       <c r="J17" s="3">
         <v>125.33</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44965.583333333336</v>
       </c>
@@ -7096,8 +7249,14 @@
       <c r="J18" s="3">
         <v>125.48</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44965.625</v>
       </c>
@@ -7125,7 +7284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44965.666666666664</v>
       </c>
@@ -7153,7 +7312,7 @@
         <v>456.75</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44965.708333333336</v>
       </c>
@@ -7181,7 +7340,7 @@
         <v>625.5</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44965.75</v>
       </c>
@@ -7209,7 +7368,7 @@
         <v>804.75</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44965.791666666664</v>
       </c>
@@ -7237,7 +7396,7 @@
         <v>907.5</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44965.833333333336</v>
       </c>
@@ -7265,7 +7424,7 @@
         <v>965.7</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44965.875</v>
       </c>
@@ -7293,7 +7452,7 @@
         <v>996.45</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44965.916666666664</v>
       </c>
@@ -7321,7 +7480,7 @@
         <v>972.9</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44965.958333333336</v>
       </c>
@@ -7349,7 +7508,7 @@
         <v>869.4</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44966</v>
       </c>
@@ -7377,7 +7536,7 @@
         <v>820.8</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44966.041666666664</v>
       </c>
@@ -7405,7 +7564,7 @@
         <v>763.05</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44966.083333333336</v>
       </c>
@@ -7433,7 +7592,7 @@
         <v>763.65</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44966.125</v>
       </c>
@@ -7461,7 +7620,7 @@
         <v>715.8</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44966.166666666664</v>
       </c>
@@ -7489,7 +7648,7 @@
         <v>718.43</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44966.208333333336</v>
       </c>
@@ -7517,7 +7676,7 @@
         <v>726.9</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44966.25</v>
       </c>
@@ -7545,7 +7704,7 @@
         <v>710.1</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44966.291666666664</v>
       </c>
@@ -7573,7 +7732,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44966.333333333336</v>
       </c>
@@ -7601,7 +7760,7 @@
         <v>646.79999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44966.375</v>
       </c>
@@ -7629,7 +7788,7 @@
         <v>578.33000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44966.416666666664</v>
       </c>
@@ -7657,7 +7816,7 @@
         <v>450.9</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44966.458333333336</v>
       </c>
@@ -7685,7 +7844,7 @@
         <v>375.9</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44966.5</v>
       </c>
@@ -7713,7 +7872,7 @@
         <v>342.68</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44966.541666666664</v>
       </c>
@@ -7741,7 +7900,7 @@
         <v>277.43</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44966.583333333336</v>
       </c>
@@ -7769,7 +7928,7 @@
         <v>336.38</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44966.625</v>
       </c>
@@ -7797,7 +7956,7 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44966.666666666664</v>
       </c>
@@ -7825,7 +7984,7 @@
         <v>547.35</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44966.708333333336</v>
       </c>
@@ -7853,7 +8012,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44966.75</v>
       </c>
@@ -7881,7 +8040,7 @@
         <v>783.08</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44966.791666666664</v>
       </c>
@@ -7909,7 +8068,7 @@
         <v>916.58</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44966.833333333336</v>
       </c>
@@ -7937,7 +8096,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44966.875</v>
       </c>
@@ -7965,7 +8124,7 @@
         <v>1005.75</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44966.916666666664</v>
       </c>
@@ -7993,7 +8152,7 @@
         <v>990.9</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44966.958333333336</v>
       </c>
@@ -8021,7 +8180,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44967</v>
       </c>
@@ -8049,7 +8208,7 @@
         <v>843.68</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44967.041666666664</v>
       </c>
@@ -8077,7 +8236,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44967.083333333336</v>
       </c>
@@ -8105,7 +8264,7 @@
         <v>707.25</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44967.125</v>
       </c>
@@ -8133,7 +8292,7 @@
         <v>689.55</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44967.166666666664</v>
       </c>
@@ -8161,7 +8320,7 @@
         <v>699.83</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44967.208333333336</v>
       </c>
@@ -8189,7 +8348,7 @@
         <v>788.55</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44967.25</v>
       </c>
@@ -8217,7 +8376,7 @@
         <v>912.53</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44967.291666666664</v>
       </c>
@@ -8245,7 +8404,7 @@
         <v>995.85</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44967.333333333336</v>
       </c>
@@ -8273,7 +8432,7 @@
         <v>1007.03</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>44967.375</v>
       </c>
@@ -8301,7 +8460,7 @@
         <v>884.63</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>44967.416666666664</v>
       </c>
@@ -8329,7 +8488,7 @@
         <v>789.6</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>44967.458333333336</v>
       </c>
@@ -8357,7 +8516,7 @@
         <v>712.43</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>44967.5</v>
       </c>
@@ -8385,7 +8544,7 @@
         <v>669.23</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>44967.541666666664</v>
       </c>
@@ -8413,7 +8572,7 @@
         <v>601.20000000000005</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>44967.583333333336</v>
       </c>
@@ -8441,7 +8600,7 @@
         <v>483.53</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>44967.625</v>
       </c>
@@ -8469,7 +8628,7 @@
         <v>463.58</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44967.666666666664</v>
       </c>
@@ -8497,7 +8656,7 @@
         <v>472.05</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>44967.708333333336</v>
       </c>
@@ -8525,7 +8684,7 @@
         <v>602.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>44967.75</v>
       </c>
@@ -8553,7 +8712,7 @@
         <v>914.78</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44967.791666666664</v>
       </c>
@@ -8581,7 +8740,7 @@
         <v>1241.18</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>44967.833333333336</v>
       </c>
@@ -8609,7 +8768,7 @@
         <v>1319.18</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44967.875</v>
       </c>
@@ -8637,7 +8796,7 @@
         <v>1350.53</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>44967.916666666664</v>
       </c>
@@ -8665,7 +8824,7 @@
         <v>1221.9000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44967.958333333336</v>
       </c>
@@ -8693,7 +8852,7 @@
         <v>1002.75</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>44968</v>
       </c>
@@ -8721,7 +8880,7 @@
         <v>933.08</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>44968.041666666664</v>
       </c>
@@ -8749,7 +8908,7 @@
         <v>868.05</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>44968.083333333336</v>
       </c>
@@ -8777,7 +8936,7 @@
         <v>789.68</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44968.125</v>
       </c>
@@ -8805,7 +8964,7 @@
         <v>755.1</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>44968.166666666664</v>
       </c>
@@ -8833,7 +8992,7 @@
         <v>747.75</v>
       </c>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>44968.208333333336</v>
       </c>
@@ -8861,7 +9020,7 @@
         <v>845.55</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>44968.25</v>
       </c>
@@ -8889,7 +9048,7 @@
         <v>926.63</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>44968.291666666664</v>
       </c>
@@ -8917,7 +9076,7 @@
         <v>940.43</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44968.333333333336</v>
       </c>
@@ -8945,7 +9104,7 @@
         <v>907.13</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>44968.375</v>
       </c>
@@ -8973,7 +9132,7 @@
         <v>788.25</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>44968.416666666664</v>
       </c>
@@ -9001,7 +9160,7 @@
         <v>686.78</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>44968.458333333336</v>
       </c>
@@ -9029,7 +9188,7 @@
         <v>489.38</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>44968.5</v>
       </c>
@@ -9057,7 +9216,7 @@
         <v>422.85</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>44968.541666666664</v>
       </c>
@@ -9085,7 +9244,7 @@
         <v>347.93</v>
       </c>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>44968.583333333336</v>
       </c>
@@ -9113,7 +9272,7 @@
         <v>355.43</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>44968.625</v>
       </c>
@@ -9141,7 +9300,7 @@
         <v>434.1</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>44968.666666666664</v>
       </c>
@@ -9169,7 +9328,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>44968.708333333336</v>
       </c>
@@ -9197,7 +9356,7 @@
         <v>698.4</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>44968.75</v>
       </c>
@@ -9225,7 +9384,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>44968.791666666664</v>
       </c>
@@ -9253,7 +9412,7 @@
         <v>1061.6300000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>44968.833333333336</v>
       </c>
@@ -9281,7 +9440,7 @@
         <v>1200.1500000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44968.875</v>
       </c>
@@ -9309,7 +9468,7 @@
         <v>1005.68</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44968.916666666664</v>
       </c>
@@ -9337,7 +9496,7 @@
         <v>892.5</v>
       </c>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>44968.958333333336</v>
       </c>
@@ -9365,7 +9524,7 @@
         <v>772.73</v>
       </c>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>44969</v>
       </c>
@@ -9393,7 +9552,7 @@
         <v>738.53</v>
       </c>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>44969.041666666664</v>
       </c>
@@ -9421,7 +9580,7 @@
         <v>682.5</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>44969.083333333336</v>
       </c>
@@ -9449,7 +9608,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>44969.125</v>
       </c>
@@ -9477,7 +9636,7 @@
         <v>615.67999999999995</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>44969.166666666664</v>
       </c>
@@ -9505,7 +9664,7 @@
         <v>580.5</v>
       </c>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>44969.208333333336</v>
       </c>
@@ -9533,7 +9692,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>44969.25</v>
       </c>
@@ -9561,7 +9720,7 @@
         <v>661.65</v>
       </c>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>44969.291666666664</v>
       </c>
@@ -9589,7 +9748,7 @@
         <v>865.5</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>44969.333333333336</v>
       </c>
@@ -9617,7 +9776,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>44969.375</v>
       </c>
@@ -9645,7 +9804,7 @@
         <v>767.48</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44969.416666666664</v>
       </c>
@@ -9673,7 +9832,7 @@
         <v>622.5</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>44969.458333333336</v>
       </c>
@@ -9701,7 +9860,7 @@
         <v>380.78</v>
       </c>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>44969.5</v>
       </c>
@@ -9729,7 +9888,7 @@
         <v>119.03</v>
       </c>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>44969.541666666664</v>
       </c>
@@ -9757,7 +9916,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>44969.583333333336</v>
       </c>
@@ -9785,7 +9944,7 @@
         <v>144.97999999999999</v>
       </c>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>44969.625</v>
       </c>
@@ -9813,7 +9972,7 @@
         <v>202.73</v>
       </c>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>44969.666666666664</v>
       </c>
@@ -9841,7 +10000,7 @@
         <v>221.18</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>44969.708333333336</v>
       </c>
@@ -9869,7 +10028,7 @@
         <v>328.65</v>
       </c>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>44969.75</v>
       </c>
@@ -9897,7 +10056,7 @@
         <v>375.45</v>
       </c>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44969.791666666664</v>
       </c>
@@ -9925,7 +10084,7 @@
         <v>601.95000000000005</v>
       </c>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>44969.833333333336</v>
       </c>
@@ -9953,7 +10112,7 @@
         <v>1043.25</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>44969.875</v>
       </c>
@@ -9981,7 +10140,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>44969.916666666664</v>
       </c>
@@ -10009,7 +10168,7 @@
         <v>945.08</v>
       </c>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>44969.958333333336</v>
       </c>
@@ -10037,7 +10196,7 @@
         <v>854.33</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>44970</v>
       </c>
@@ -10065,7 +10224,7 @@
         <v>786.9</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>44970.041666666664</v>
       </c>
@@ -10093,7 +10252,7 @@
         <v>642.45000000000005</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>44970.083333333336</v>
       </c>
@@ -10121,7 +10280,7 @@
         <v>592.5</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>44970.125</v>
       </c>
@@ -10149,7 +10308,7 @@
         <v>563.17999999999995</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>44970.166666666664</v>
       </c>
@@ -10177,7 +10336,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>44970.208333333336</v>
       </c>
@@ -10205,7 +10364,7 @@
         <v>663.83</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>44970.25</v>
       </c>
@@ -10233,7 +10392,7 @@
         <v>766.73</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>44970.291666666664</v>
       </c>
@@ -10261,7 +10420,7 @@
         <v>828.53</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>44970.333333333336</v>
       </c>
@@ -10289,7 +10448,7 @@
         <v>893.25</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>44970.375</v>
       </c>
@@ -10317,7 +10476,7 @@
         <v>652.20000000000005</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>44970.416666666664</v>
       </c>
@@ -10345,7 +10504,7 @@
         <v>365.78</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>44970.458333333336</v>
       </c>
@@ -10373,7 +10532,7 @@
         <v>356.93</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>44970.5</v>
       </c>
@@ -10401,7 +10560,7 @@
         <v>370.43</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>44970.541666666664</v>
       </c>
@@ -10429,7 +10588,7 @@
         <v>348.75</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>44970.583333333336</v>
       </c>
@@ -10457,7 +10616,7 @@
         <v>348.75</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>44970.625</v>
       </c>
@@ -10485,7 +10644,7 @@
         <v>350.63</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>44970.666666666664</v>
       </c>
@@ -10513,7 +10672,7 @@
         <v>338.03</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>44970.708333333336</v>
       </c>
@@ -10541,7 +10700,7 @@
         <v>351.98</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>44970.75</v>
       </c>
@@ -10569,7 +10728,7 @@
         <v>417.68</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>44970.791666666664</v>
       </c>
@@ -10597,7 +10756,7 @@
         <v>867.23</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>44970.833333333336</v>
       </c>
@@ -10625,7 +10784,7 @@
         <v>981.45</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>44970.875</v>
       </c>
@@ -10653,7 +10812,7 @@
         <v>1034.18</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>44970.916666666664</v>
       </c>
@@ -10681,7 +10840,7 @@
         <v>972.53</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>44970.958333333336</v>
       </c>
@@ -10709,7 +10868,7 @@
         <v>882.9</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>44971</v>
       </c>
@@ -10737,7 +10896,7 @@
         <v>757.5</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>44971.041666666664</v>
       </c>
@@ -10765,7 +10924,7 @@
         <v>722.7</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>44971.083333333336</v>
       </c>
@@ -10793,7 +10952,7 @@
         <v>634.13</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>44971.125</v>
       </c>
@@ -10821,7 +10980,7 @@
         <v>626.85</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>44971.166666666664</v>
       </c>
@@ -10849,7 +11008,7 @@
         <v>700.13</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>44971.208333333336</v>
       </c>
@@ -10877,7 +11036,7 @@
         <v>745.13</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>44971.25</v>
       </c>
@@ -10905,7 +11064,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>44971.291666666664</v>
       </c>
@@ -10933,7 +11092,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>44971.333333333336</v>
       </c>
@@ -10961,7 +11120,7 @@
         <v>778.2</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>44971.375</v>
       </c>
@@ -10989,7 +11148,7 @@
         <v>638.03</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>44971.416666666664</v>
       </c>
@@ -11017,7 +11176,7 @@
         <v>597.83000000000004</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>44971.458333333336</v>
       </c>
@@ -11045,7 +11204,7 @@
         <v>572.92999999999995</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>44971.5</v>
       </c>
@@ -11073,7 +11232,7 @@
         <v>553.5</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>44971.541666666664</v>
       </c>
@@ -11101,7 +11260,7 @@
         <v>523.88</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>44971.583333333336</v>
       </c>
@@ -11129,7 +11288,7 @@
         <v>563.48</v>
       </c>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>44971.625</v>
       </c>
@@ -11157,7 +11316,7 @@
         <v>582.75</v>
       </c>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>44971.666666666664</v>
       </c>
@@ -11185,7 +11344,7 @@
         <v>581.63</v>
       </c>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>44971.708333333336</v>
       </c>
@@ -11213,7 +11372,7 @@
         <v>730.95</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>44971.75</v>
       </c>
@@ -11241,7 +11400,7 @@
         <v>864.38</v>
       </c>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>44971.791666666664</v>
       </c>
@@ -11269,7 +11428,7 @@
         <v>1051.43</v>
       </c>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>44971.833333333336</v>
       </c>
@@ -11297,7 +11456,7 @@
         <v>1049.4000000000001</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>44971.875</v>
       </c>
@@ -11325,7 +11484,7 @@
         <v>929.4</v>
       </c>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>44971.916666666664</v>
       </c>
@@ -11353,7 +11512,7 @@
         <v>714.38</v>
       </c>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>44971.958333333336</v>
       </c>

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9804BE-F5DA-4320-BCE3-2626B07BDB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA08DC1-7788-4625-B8EE-618FE2C28A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2700" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Winter period</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>In every drop of warmth you deliver, you bring the glow of comfort to countless homes.</t>
+  </si>
+  <si>
+    <t>User-ID</t>
+  </si>
+  <si>
+    <t>User-Password</t>
+  </si>
+  <si>
+    <t>User-rights</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -6315,16 +6330,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4572001</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6353,16 +6368,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4581526</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6655,10 +6670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N171"/>
+  <dimension ref="B1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6672,9 +6687,11 @@
     <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="120.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6693,8 +6710,17 @@
       <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6719,8 +6745,17 @@
       <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6746,7 +6781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>44965</v>
       </c>
@@ -6780,7 +6815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44965.041666666664</v>
       </c>
@@ -6814,7 +6849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44965.083333333336</v>
       </c>
@@ -6848,7 +6883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44965.125</v>
       </c>
@@ -6882,7 +6917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965.166666666664</v>
       </c>
@@ -6916,7 +6951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965.208333333336</v>
       </c>
@@ -6950,7 +6985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44965.25</v>
       </c>
@@ -6984,7 +7019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44965.291666666664</v>
       </c>
@@ -7018,7 +7053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44965.333333333336</v>
       </c>
@@ -7052,7 +7087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44965.375</v>
       </c>
@@ -7086,7 +7121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44965.416666666664</v>
       </c>
@@ -7120,7 +7155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44965.458333333336</v>
       </c>
@@ -7154,7 +7189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44965.5</v>
       </c>

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA08DC1-7788-4625-B8EE-618FE2C28A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11057F-4CF9-4693-B1AD-2A05BCD54848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2700" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Winter period</t>
   </si>
@@ -128,10 +128,16 @@
     <t>User-rights</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>all</t>
   </si>
   <si>
-    <t>all</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>bob</t>
   </si>
 </sst>
 </file>
@@ -6673,7 +6679,7 @@
   <dimension ref="B1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,13 +6752,13 @@
         <v>5</v>
       </c>
       <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -6779,6 +6785,15 @@
       </c>
       <c r="J3" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11057F-4CF9-4693-B1AD-2A05BCD54848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACB4FB-87BE-41FD-9E6B-1D32A07FBD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2700" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15585" yWindow="4080" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Winter period</t>
   </si>
@@ -128,9 +128,6 @@
     <t>User-rights</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>bob</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -6678,8 +6681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,13 +6755,13 @@
         <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -6787,13 +6790,13 @@
         <v>8</v>
       </c>
       <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACB4FB-87BE-41FD-9E6B-1D32A07FBD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB71436F-1AA5-473E-9E34-323427EB6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="4080" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24180" yWindow="6150" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Winter period</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>Machine Name</t>
   </si>
 </sst>
 </file>
@@ -6679,10 +6682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R171"/>
+  <dimension ref="B1:T171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6698,9 +6701,10 @@
     <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6728,8 +6732,11 @@
       <c r="R1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6764,7 +6771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6799,7 +6806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>44965</v>
       </c>
@@ -6833,7 +6840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44965.041666666664</v>
       </c>
@@ -6867,7 +6874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44965.083333333336</v>
       </c>
@@ -6901,7 +6908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44965.125</v>
       </c>
@@ -6935,7 +6942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965.166666666664</v>
       </c>
@@ -6969,7 +6976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965.208333333336</v>
       </c>
@@ -7003,7 +7010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44965.25</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44965.291666666664</v>
       </c>
@@ -7071,7 +7078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44965.333333333336</v>
       </c>
@@ -7105,7 +7112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44965.375</v>
       </c>
@@ -7139,7 +7146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44965.416666666664</v>
       </c>
@@ -7173,7 +7180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44965.458333333336</v>
       </c>
@@ -7207,7 +7214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44965.5</v>
       </c>

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB71436F-1AA5-473E-9E34-323427EB6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13A821-4069-4A15-AC01-300E67D9D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24180" yWindow="6150" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19275" yWindow="6345" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Winter period</t>
   </si>
@@ -144,6 +144,51 @@
   </si>
   <si>
     <t>Machine Name</t>
+  </si>
+  <si>
+    <t>Production Units</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Max Heat</t>
+  </si>
+  <si>
+    <t>Max electricity</t>
+  </si>
+  <si>
+    <t>Production costs</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
+    <t>Gas consumption</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>DKK / MWh(th)</t>
+  </si>
+  <si>
+    <t>kg / MWh(th)</t>
+  </si>
+  <si>
+    <t>MWh(gas) / MWh(th)</t>
+  </si>
+  <si>
+    <t>Gas boiler</t>
+  </si>
+  <si>
+    <t>Oil boiler</t>
+  </si>
+  <si>
+    <t>Gas motor</t>
+  </si>
+  <si>
+    <t>Electric boiler</t>
   </si>
 </sst>
 </file>
@@ -6682,10 +6727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T171"/>
+  <dimension ref="B1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6702,9 +6747,15 @@
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6735,8 +6786,11 @@
       <c r="T1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6770,8 +6824,26 @@
       <c r="R2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6805,8 +6877,23 @@
       <c r="R3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>44965</v>
       </c>
@@ -6839,8 +6926,26 @@
       <c r="N4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>500</v>
+      </c>
+      <c r="AA4">
+        <v>215</v>
+      </c>
+      <c r="AB4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44965.041666666664</v>
       </c>
@@ -6873,8 +6978,26 @@
       <c r="N5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>700</v>
+      </c>
+      <c r="AA5">
+        <v>265</v>
+      </c>
+      <c r="AB5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44965.083333333336</v>
       </c>
@@ -6907,8 +7030,26 @@
       <c r="N6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6">
+        <v>3.6</v>
+      </c>
+      <c r="Y6">
+        <v>2.7</v>
+      </c>
+      <c r="Z6">
+        <v>1100</v>
+      </c>
+      <c r="AA6">
+        <v>640</v>
+      </c>
+      <c r="AB6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44965.125</v>
       </c>
@@ -6941,8 +7082,26 @@
       <c r="N7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>-8</v>
+      </c>
+      <c r="Z7">
+        <v>50</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965.166666666664</v>
       </c>
@@ -6976,7 +7135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965.208333333336</v>
       </c>
@@ -7010,7 +7169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44965.25</v>
       </c>
@@ -7044,7 +7203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44965.291666666664</v>
       </c>
@@ -7077,8 +7236,9 @@
       <c r="N11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44965.333333333336</v>
       </c>
@@ -7112,7 +7272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44965.375</v>
       </c>
@@ -7146,7 +7306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44965.416666666664</v>
       </c>
@@ -7180,7 +7340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44965.458333333336</v>
       </c>
@@ -7214,7 +7374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44965.5</v>
       </c>

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13A821-4069-4A15-AC01-300E67D9D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202A5B7-E8D5-49E5-806F-59EFEEF4DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19275" yWindow="6345" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3495" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Winter period</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>Machine Name</t>
   </si>
   <si>
     <t>Production Units</t>
@@ -6727,10 +6724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AB171"/>
+  <dimension ref="B1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,15 +6744,17 @@
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6783,14 +6782,11 @@
       <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6824,26 +6820,26 @@
       <c r="R2" t="s">
         <v>33</v>
       </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6877,23 +6873,23 @@
       <c r="R3" t="s">
         <v>34</v>
       </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
       <c r="X3" t="s">
         <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>44965</v>
       </c>
@@ -6926,26 +6922,26 @@
       <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="W4" t="s">
-        <v>47</v>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="Z4">
-        <v>500</v>
-      </c>
-      <c r="AA4">
-        <v>215</v>
-      </c>
-      <c r="AB4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44965.041666666664</v>
       </c>
@@ -6978,26 +6974,26 @@
       <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="W5" t="s">
-        <v>48</v>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="Z5">
-        <v>700</v>
-      </c>
-      <c r="AA5">
-        <v>265</v>
-      </c>
-      <c r="AB5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44965.083333333336</v>
       </c>
@@ -7030,26 +7026,26 @@
       <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="W6" t="s">
-        <v>49</v>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6">
+        <v>3.6</v>
+      </c>
+      <c r="W6">
+        <v>2.7</v>
       </c>
       <c r="X6">
-        <v>3.6</v>
+        <v>1100</v>
       </c>
       <c r="Y6">
-        <v>2.7</v>
+        <v>640</v>
       </c>
       <c r="Z6">
-        <v>1100</v>
-      </c>
-      <c r="AA6">
-        <v>640</v>
-      </c>
-      <c r="AB6">
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44965.125</v>
       </c>
@@ -7082,26 +7078,26 @@
       <c r="N7" t="s">
         <v>25</v>
       </c>
-      <c r="W7" t="s">
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>-8</v>
+      </c>
+      <c r="X7">
         <v>50</v>
       </c>
-      <c r="X7">
-        <v>8</v>
-      </c>
       <c r="Y7">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>50</v>
-      </c>
-      <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965.166666666664</v>
       </c>
@@ -7135,7 +7131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965.208333333336</v>
       </c>
@@ -7169,7 +7165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44965.25</v>
       </c>
@@ -7203,7 +7199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44965.291666666664</v>
       </c>
@@ -7238,7 +7234,7 @@
       </c>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44965.333333333336</v>
       </c>
@@ -7272,7 +7268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44965.375</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44965.416666666664</v>
       </c>
@@ -7340,7 +7336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44965.458333333336</v>
       </c>
@@ -7374,7 +7370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44965.5</v>
       </c>

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13A821-4069-4A15-AC01-300E67D9D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E7270-2EC3-45B9-981B-996C8EC46EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19275" yWindow="6345" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="3015" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Winter period</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>Machine Name</t>
   </si>
   <si>
     <t>Production Units</t>
@@ -6727,19 +6724,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AB171"/>
+  <dimension ref="B1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="120.28515625" bestFit="1" customWidth="1"/>
@@ -6747,15 +6744,17 @@
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6783,14 +6782,11 @@
       <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6824,26 +6820,26 @@
       <c r="R2" t="s">
         <v>33</v>
       </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6877,23 +6873,23 @@
       <c r="R3" t="s">
         <v>34</v>
       </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
       <c r="X3" t="s">
         <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>44965</v>
       </c>
@@ -6926,26 +6922,26 @@
       <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="W4" t="s">
-        <v>47</v>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="Z4">
-        <v>500</v>
-      </c>
-      <c r="AA4">
-        <v>215</v>
-      </c>
-      <c r="AB4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44965.041666666664</v>
       </c>
@@ -6978,26 +6974,26 @@
       <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="W5" t="s">
-        <v>48</v>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="Z5">
-        <v>700</v>
-      </c>
-      <c r="AA5">
-        <v>265</v>
-      </c>
-      <c r="AB5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44965.083333333336</v>
       </c>
@@ -7030,26 +7026,26 @@
       <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="W6" t="s">
-        <v>49</v>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6">
+        <v>3.6</v>
+      </c>
+      <c r="W6">
+        <v>2.7</v>
       </c>
       <c r="X6">
-        <v>3.6</v>
+        <v>1100</v>
       </c>
       <c r="Y6">
-        <v>2.7</v>
+        <v>640</v>
       </c>
       <c r="Z6">
-        <v>1100</v>
-      </c>
-      <c r="AA6">
-        <v>640</v>
-      </c>
-      <c r="AB6">
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44965.125</v>
       </c>
@@ -7082,26 +7078,26 @@
       <c r="N7" t="s">
         <v>25</v>
       </c>
-      <c r="W7" t="s">
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>-8</v>
+      </c>
+      <c r="X7">
         <v>50</v>
       </c>
-      <c r="X7">
-        <v>8</v>
-      </c>
       <c r="Y7">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>50</v>
-      </c>
-      <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965.166666666664</v>
       </c>
@@ -7135,7 +7131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965.208333333336</v>
       </c>
@@ -7169,7 +7165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44965.25</v>
       </c>
@@ -7203,7 +7199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44965.291666666664</v>
       </c>
@@ -7238,7 +7234,7 @@
       </c>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44965.333333333336</v>
       </c>
@@ -7272,7 +7268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44965.375</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44965.416666666664</v>
       </c>
@@ -7340,7 +7336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44965.458333333336</v>
       </c>
@@ -7374,7 +7370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44965.5</v>
       </c>

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samgl\Documents\GitHub\smesterProjectSW2\Danfoss Heating system\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubak\OneDrive\Pulpit\Danfoss Heating System\smesterProjectSW2\Danfoss Heating system\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13A821-4069-4A15-AC01-300E67D9D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C562C8-3E74-4376-9E35-121E908D78D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19275" yWindow="6345" windowWidth="22035" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Winter period</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Production Units</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Max Heat</t>
   </si>
   <si>
@@ -195,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +226,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -276,6 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +372,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2564,7 +2570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658203504"/>
@@ -2623,7 +2629,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658202064"/>
@@ -2665,7 +2671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="948367536"/>
@@ -2734,7 +2740,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2771,7 +2777,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2855,7 +2861,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5053,7 +5059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658203504"/>
@@ -5112,7 +5118,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658202064"/>
@@ -5154,7 +5160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="948367536"/>
@@ -5223,7 +5229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5260,7 +5266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6729,17 +6735,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="120.28515625" bestFit="1" customWidth="1"/>
@@ -6783,12 +6790,14 @@
       <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="W1" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -6824,23 +6833,23 @@
       <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
@@ -6877,20 +6886,20 @@
       <c r="R3" t="s">
         <v>34</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:28" ht="17.25" x14ac:dyDescent="0.3">
@@ -6927,7 +6936,7 @@
         <v>25</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X4">
         <v>5</v>
@@ -6979,7 +6988,7 @@
         <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X5">
         <v>4</v>
@@ -7031,7 +7040,7 @@
         <v>25</v>
       </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X6">
         <v>3.6</v>
@@ -7083,7 +7092,7 @@
         <v>25</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X7">
         <v>8</v>
@@ -11761,9 +11770,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -7055,7 +7055,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="AG3" s="0">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AH3" s="0">
         <x:v>0</x:v>
@@ -7064,7 +7064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ3" s="0">
-        <x:v>1.4</x:v>
+        <x:v>1.2</x:v>
       </x:c>
       <x:c r="AK3" s="0">
         <x:v>1</x:v>
@@ -7129,16 +7129,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="AG4" s="0">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AH4" s="0">
-        <x:v>3994.7904</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI4" s="0">
-        <x:v>2304</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AJ4" s="0">
-        <x:v>1.26</x:v>
+        <x:v>1.08</x:v>
       </x:c>
       <x:c r="AK4" s="0">
         <x:v>1</x:v>
@@ -7197,13 +7197,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="AE5" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG5" s="0">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AH5" s="0">
         <x:v>0</x:v>
@@ -7212,10 +7212,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ5" s="0">
-        <x:v>4.4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AK5" s="0">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -7327,25 +7327,25 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="AE7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG7" s="0">
-        <x:v>35</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AH7" s="0">
-        <x:v>2500</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI7" s="0">
-        <x:v>1075</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AJ7" s="0">
-        <x:v>1.75</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AK7" s="0">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -7383,13 +7383,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="AE8" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG8" s="0">
-        <x:v>75</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AH8" s="0">
         <x:v>0</x:v>
@@ -7398,10 +7398,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ8" s="0">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AK8" s="0">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -7439,13 +7439,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="AE9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG9" s="0">
-        <x:v>75</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AH9" s="0">
         <x:v>0</x:v>
@@ -7454,10 +7454,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ9" s="0">
-        <x:v>2.7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AK9" s="0">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -7495,13 +7495,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="AE10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG10" s="0">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AH10" s="0">
         <x:v>0</x:v>
@@ -7510,10 +7510,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ10" s="0">
-        <x:v>4.4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AK10" s="0">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:37" x14ac:dyDescent="0.25">

--- a/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
+++ b/Danfoss Heating system/bin/Debug/net8.0/Assets/data.xlsx
@@ -126,10 +126,10 @@
     <x:t>Gas boiler</x:t>
   </x:si>
   <x:si>
-    <x:t>Red</x:t>
+    <x:t>Green</x:t>
   </x:si>
   <x:si>
-    <x:t>OFF</x:t>
+    <x:t>ON</x:t>
   </x:si>
   <x:si>
     <x:t>DKK local time</x:t>
@@ -165,12 +165,6 @@
     <x:t>Oil boiler</x:t>
   </x:si>
   <x:si>
-    <x:t>Green</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON</x:t>
-  </x:si>
-  <x:si>
     <x:t>In every drop of warmth you deliver, you bring the glow of comfort to countless homes.</x:t>
   </x:si>
   <x:si>
@@ -184,6 +178,12 @@
   </x:si>
   <x:si>
     <x:t>Electric boiler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OFF</x:t>
   </x:si>
   <x:si>
     <x:t>Together, we weave a tapestry of warmth, each thread vital to the comfort of homes around the world.</x:t>
@@ -6981,19 +6981,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="AG2" s="0">
-        <x:v>0</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AH2" s="0">
-        <x:v>0</x:v>
+        <x:v>2500</x:v>
       </x:c>
       <x:c r="AI2" s="0">
-        <x:v>0</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="AJ2" s="0">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="AK2" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -7049,22 +7049,22 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="AE3" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF3" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG3" s="0">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="AH3" s="0">
-        <x:v>0</x:v>
+        <x:v>2800</x:v>
       </x:c>
       <x:c r="AI3" s="0">
-        <x:v>0</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="AJ3" s="0">
-        <x:v>1.2</x:v>
+        <x:v>1.6</x:v>
       </x:c>
       <x:c r="AK3" s="0">
         <x:v>1</x:v>
@@ -7096,10 +7096,10 @@
         <x:v>752.03</x:v>
       </x:c>
       <x:c r="M4" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="W4" s="0" t="s">
         <x:v>28</x:v>
@@ -7120,16 +7120,16 @@
         <x:v>1.1</x:v>
       </x:c>
       <x:c r="AD4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="AE4" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AF4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG4" s="0">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="AH4" s="0">
         <x:v>0</x:v>
@@ -7138,7 +7138,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AJ4" s="0">
-        <x:v>1.08</x:v>
+        <x:v>0.72</x:v>
       </x:c>
       <x:c r="AK4" s="0">
         <x:v>1</x:v>
@@ -7170,10 +7170,10 @@
         <x:v>691.05</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="W5" s="0" t="s">
         <x:v>41</x:v>
@@ -7194,13 +7194,13 @@
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="AD5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AE5" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AF5" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="AE5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="AF5" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="AG5" s="0">
         <x:v>0</x:v>
@@ -7247,10 +7247,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="W6" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="X6" s="0">
         <x:v>3.6</x:v>
@@ -7303,10 +7303,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="W7" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="X7" s="0">
         <x:v>8</x:v>
@@ -7327,10 +7327,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="AE7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AF7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="AG7" s="0">
         <x:v>0</x:v>
@@ -7377,16 +7377,16 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="AD8" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="AE8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AF8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="AG8" s="0">
         <x:v>0</x:v>
@@ -7433,16 +7433,16 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="AD9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="AE9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AF9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="AG9" s="0">
         <x:v>0</x:v>
@@ -7489,16 +7489,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="AD10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AE10" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AF10" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="AE10" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="AF10" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="AG10" s="0">
         <x:v>0</x:v>
@@ -7545,7 +7545,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="Z11" s="9"/>
     </x:row>
@@ -7578,7 +7578,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -7610,7 +7610,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -7642,7 +7642,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -7674,7 +7674,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="N15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -7706,7 +7706,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -7738,7 +7738,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:37" x14ac:dyDescent="0.25">
